--- a/indigo/spreadsheetform_guides/project_public_v008.xlsx
+++ b/indigo/spreadsheetform_guides/project_public_v008.xlsx
@@ -220,7 +220,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Data may be inaccurate, incomplete, inconsistent, and/or not current for various reasons: INDIGO is a collaborative and iterative initiative that mostly relies on projects all over the world volunteering to share their data. We have a system for processing information and try to attribute data to named sources, but we do not audit, cross-check, or verify all information provided to us. Not everyone agrees that all these data should be public and those that do agree are very busy. It takes time and resources to share data, which may not have been included in a project’s budget. Many of the projects are ongoing and timely updates may not be available. Different people may have different interpretations of data items and definitions. </t>
+      <t xml:space="preserve"> Data may be inaccurate, incomplete, inconsistent, and/or not current for various reasons: INDIGO is a collaborative and iterative initiative that mostly relies on projects all over the world volunteering to share their data. We have a system for processing information and try to attribute data to named sources, but we do not audit, cross-check, or verify all information provided to us. It takes time and resources to share data, which may not have been included in a project’s budget. Many of the projects are ongoing and timely updates may not be available. Different people may have different interpretations of data items and definitions. </t>
     </r>
     <r>
       <rPr>
